--- a/Luban/Configs/Datas/t_skill.xlsx
+++ b/Luban/Configs/Datas/t_skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B51B7A0-3C21-485E-BE84-3E013D27E9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB828BA-7D34-4199-AFCD-6D1F1EDC4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="1890" windowWidth="25395" windowHeight="11385" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,58 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
-    <t>SameID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumbeOfAttacks</t>
-  </si>
-  <si>
-    <t>NumbeOfInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>OpenLevel</t>
-  </si>
-  <si>
-    <t>NeedMP</t>
-  </si>
-  <si>
-    <t>NeedHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirBorneForce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAirBorne</t>
-  </si>
-  <si>
-    <t>SkillName</t>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,12 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AnimationDataName</t>
-  </si>
-  <si>
-    <t>DamageCode</t>
-  </si>
-  <si>
     <t>##var</t>
   </si>
   <si>
@@ -226,6 +168,74 @@
   </si>
   <si>
     <t>伤害id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sameID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numbeOfAttacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numbeOfInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airBorneForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canAirBorne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animationDataName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +603,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,179 +629,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -802,7 +812,7 @@
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>10000</v>
@@ -852,7 +862,7 @@
         <v>10001</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>10001</v>
@@ -902,7 +912,7 @@
         <v>10002</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <v>10000</v>
@@ -952,7 +962,7 @@
         <v>10003</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,10 +998,10 @@
         <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <v>10002</v>
@@ -1005,7 +1015,7 @@
         <v>10004</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <v>10000</v>

--- a/Luban/Configs/Datas/t_skill.xlsx
+++ b/Luban/Configs/Datas/t_skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB828BA-7D34-4199-AFCD-6D1F1EDC4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA78CA-6117-42E1-BDC7-9D0468DE26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
+    <workbookView xWindow="6825" yWindow="3225" windowWidth="22545" windowHeight="11385" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>damageCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D91F436-F6DC-4264-8FE5-E2B4AB4BDE9C}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,6 +1064,56 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>30000</v>
+      </c>
+      <c r="C9">
+        <v>30000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/t_skill.xlsx
+++ b/Luban/Configs/Datas/t_skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA78CA-6117-42E1-BDC7-9D0468DE26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6819846B-07C1-4858-9117-048480AB5F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="3225" windowWidth="22545" windowHeight="11385" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,18 @@
   </si>
   <si>
     <t>怪物攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D91F436-F6DC-4264-8FE5-E2B4AB4BDE9C}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -633,179 +641,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
         <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>32</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>33</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -816,7 +824,7 @@
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -852,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>10000</v>
@@ -866,7 +874,7 @@
         <v>10001</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -899,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>10001</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -916,7 +924,7 @@
         <v>10002</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -949,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>10000</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -966,7 +974,7 @@
         <v>10003</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -984,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -999,16 +1007,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>10002</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1019,7 +1024,7 @@
         <v>10004</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1037,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1052,27 +1057,27 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="P8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>10000</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>30000</v>
+        <v>10005</v>
       </c>
       <c r="C9">
-        <v>30000</v>
+        <v>10005</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1108,9 +1113,62 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>5</v>
       </c>
       <c r="S9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>30000</v>
+      </c>
+      <c r="C10">
+        <v>30000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>10000</v>
       </c>
     </row>

--- a/Luban/Configs/Datas/t_skill.xlsx
+++ b/Luban/Configs/Datas/t_skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6819846B-07C1-4858-9117-048480AB5F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62B476-4A7C-4C35-8E14-B3D1ED51ED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
   </bookViews>
@@ -35,15 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>跳跃攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,12 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ShangTiao_Anim</t>
-  </si>
-  <si>
-    <t>LianTuCi_Anim</t>
-  </si>
-  <si>
     <t>上挑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浮空力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否能浮空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动画名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,14 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>airBorneForce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canAirBorne</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>animationDataName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +215,57 @@
   <si>
     <t>普通攻击3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_1_ANIM</t>
+  </si>
+  <si>
+    <t>ATTACK_2_ANIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_3_ANIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUMP_ATTACK_ANIM</t>
+  </si>
+  <si>
+    <t>LEVITATION_ANIM</t>
+  </si>
+  <si>
+    <t>鬼斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectEx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUIZHAN_ANIM</t>
+  </si>
+  <si>
+    <t>10000,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效code,开始帧数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKJUMP_ANIM</t>
   </si>
 </sst>
 </file>
@@ -294,8 +311,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D91F436-F6DC-4264-8FE5-E2B4AB4BDE9C}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,188 +652,188 @@
     <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.25" customWidth="1"/>
     <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
     <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>48</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -824,7 +844,7 @@
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -856,15 +876,14 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4">
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4">
         <v>10000</v>
       </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -874,7 +893,7 @@
         <v>10001</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,15 +925,14 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5">
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5">
         <v>10000</v>
       </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -924,7 +942,7 @@
         <v>10002</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -956,15 +974,14 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>24</v>
-      </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6">
         <v>10001</v>
       </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -974,7 +991,7 @@
         <v>10003</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1006,15 +1023,14 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7">
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7">
         <v>10000</v>
       </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -1024,7 +1040,7 @@
         <v>10004</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1056,18 +1072,14 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8">
+      <c r="O8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8">
         <v>10002</v>
       </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -1077,7 +1089,7 @@
         <v>10005</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,25 +1121,18 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9">
+      <c r="Q9">
         <v>10000</v>
       </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>30000</v>
+        <v>10006</v>
       </c>
       <c r="C10">
-        <v>30000</v>
+        <v>10006</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -1148,32 +1153,128 @@
         <v>10</v>
       </c>
       <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10">
+        <v>10003</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>10007</v>
+      </c>
+      <c r="C11">
+        <v>10007</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>30000</v>
+      </c>
+      <c r="C12">
+        <v>30000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
         <v>0.1</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>10000</v>
       </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/Configs/Datas/t_skill.xlsx
+++ b/Luban/Configs/Datas/t_skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62B476-4A7C-4C35-8E14-B3D1ED51ED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADFFAB5-E2E1-43C2-BC11-921E6CAE80A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>跳跃攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,30 +242,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effectEx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GUIZHAN_ANIM</t>
   </si>
   <si>
-    <t>10000,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效code,开始帧数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后跳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BACKJUMP_ANIM</t>
+  </si>
+  <si>
+    <t>10000,10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectShowFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效开始帧数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEDANG_ANIM</t>
+  </si>
+  <si>
+    <t>audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/Character/swordman/sm_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能声效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/Character/swordman/sm_atk_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/Character/swordman/sm_atk_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/Character/swordman/sm_atk_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/Character/swordman/sm_upslash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/Character/swordman/sm_gue_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODONGZHAN_ANIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -632,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D91F436-F6DC-4264-8FE5-E2B4AB4BDE9C}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,7 +710,7 @@
     <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -715,10 +766,13 @@
         <v>52</v>
       </c>
       <c r="S1" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -774,10 +828,13 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -833,10 +890,13 @@
         <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -884,8 +944,11 @@
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10001</v>
       </c>
@@ -933,8 +996,11 @@
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
+      <c r="T5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10002</v>
       </c>
@@ -982,8 +1048,11 @@
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
+      <c r="T6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10003</v>
       </c>
@@ -1032,7 +1101,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10004</v>
       </c>
@@ -1080,8 +1149,11 @@
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
+      <c r="T8" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10005</v>
       </c>
@@ -1127,7 +1199,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>10006</v>
       </c>
@@ -1168,19 +1240,22 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q10">
         <v>10003</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S10" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10007</v>
       </c>
@@ -1188,7 +1263,7 @@
         <v>10007</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1221,20 +1296,23 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
+      <c r="T11" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>30000</v>
+        <v>10008</v>
       </c>
       <c r="C12">
-        <v>30000</v>
+        <v>10008</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1243,16 +1321,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1266,11 +1344,113 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>10000</v>
+      <c r="O12" t="s">
+        <v>61</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10009</v>
+      </c>
+      <c r="C13">
+        <v>10009</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13">
+        <v>10003</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>30000</v>
+      </c>
+      <c r="C14">
+        <v>30000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10000</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Luban/Configs/Datas/t_skill.xlsx
+++ b/Luban/Configs/Datas/t_skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADFFAB5-E2E1-43C2-BC11-921E6CAE80A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC482CA-6F7F-4B55-B10F-A183B224213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>跳跃攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,24 @@
   </si>
   <si>
     <t>10002,10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银光落刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YINGUANGLUOREN_ANIM</t>
+  </si>
+  <si>
+    <t>跑动攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN_ATTACK_ANIM</t>
+  </si>
+  <si>
+    <t>sounds/Character/swordman/hadouken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D91F436-F6DC-4264-8FE5-E2B4AB4BDE9C}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1127,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1225,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1376,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1394,7 +1412,7 @@
         <v>71</v>
       </c>
       <c r="Q13">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>72</v>
@@ -1403,18 +1421,18 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>30000</v>
+        <v>10010</v>
       </c>
       <c r="C14">
-        <v>30000</v>
+        <v>10010</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1432,25 +1450,124 @@
         <v>10</v>
       </c>
       <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14">
+        <v>10005</v>
+      </c>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>10011</v>
+      </c>
+      <c r="C15">
+        <v>10011</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0.3</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15">
+        <v>10000</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="T15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>30000</v>
+      </c>
+      <c r="C16">
+        <v>30000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
         <v>0.1</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>10000</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Luban/Configs/Datas/t_skill.xlsx
+++ b/Luban/Configs/Datas/t_skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC482CA-6F7F-4B55-B10F-A183B224213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C98DF-D5FF-41F7-9469-F035127A013A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{0EE3E2F0-DFBD-418E-9098-037D0BC37DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,34 +279,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sounds/Character/swordman/sm_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能声效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sounds/Character/swordman/sm_atk_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/Character/swordman/sm_atk_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/Character/swordman/sm_atk_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/Character/swordman/sm_upslash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/Character/swordman/sm_gue_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>波动斩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,7 +309,31 @@
     <t>RUN_ATTACK_ANIM</t>
   </si>
   <si>
-    <t>sounds/Character/swordman/hadouken</t>
+    <t>sm_atk_01.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_atk_02.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_atk_03.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_upslash.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_gue_01.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_back.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadouken.ogg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +704,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,6 +726,7 @@
     <col min="17" max="17" width="19.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.625" customWidth="1"/>
     <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -911,7 +912,7 @@
         <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -963,7 +964,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1015,7 +1016,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1067,7 +1068,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1168,7 +1169,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1270,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1319,7 +1320,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1376,7 +1377,7 @@
         <v>10009</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1409,13 +1410,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Q13">
         <v>10004</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1432,7 +1433,7 @@
         <v>10010</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1465,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q14">
         <v>10005</v>
@@ -1480,7 +1481,7 @@
         <v>10011</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1513,14 +1514,14 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q15">
         <v>10000</v>
       </c>
       <c r="R15" s="1"/>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
